--- a/Market.xlsx
+++ b/Market.xlsx
@@ -8,14 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="2018_Market" sheetId="3" r:id="rId2"/>
+    <sheet name="2019_Market" sheetId="4" r:id="rId3"/>
+    <sheet name="2020_Market" sheetId="5" r:id="rId4"/>
+    <sheet name="2021_Market" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>Amt</t>
   </si>
@@ -452,8 +455,8 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1497,12 +1500,1186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>43250</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>47.18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>42.39</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>47.179900000000004</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42.390999999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42.390999999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1958.61</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H4" si="0">(G3*100)/F3</f>
+        <v>97.930499999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45.971499999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43.505000000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <v>85.896000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3948.77</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>98.719250000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>48.562399999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>41.183999999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>127.08</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6171.31</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(G5*100)/F5</f>
+        <v>102.85516666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>43348</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>48.439300000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41.289000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>168.369</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8155.68</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H9" si="1">(G6*100)/F6</f>
+        <v>101.946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42.980699999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>46.533000000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>214.90199999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9236.64</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>92.366399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44.124200000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45.326999999999998</v>
+      </c>
+      <c r="E8" s="3">
+        <v>260.22899999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <f>F7+B8</f>
+        <v>12000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11482.4</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>95.686666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="9">
+        <v>43439</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>45.046300000000002</v>
+      </c>
+      <c r="D9" s="10">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>304.62799999999999</v>
+      </c>
+      <c r="F9" s="10">
+        <f>F8+B9</f>
+        <v>14000</v>
+      </c>
+      <c r="G9" s="10">
+        <v>13722.36</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>98.016857142857148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45.640799999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43.82</v>
+      </c>
+      <c r="E2" s="3">
+        <v>348.44799999999998</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2+stats!$F$9</f>
+        <v>16000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15903.45</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H13" si="0">(G2*100)/F2</f>
+        <v>99.396562500000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45.137799999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44.308999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>392.75700000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F13" si="1">F2+B3</f>
+        <v>18000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>17728.189999999999</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>98.489944444444433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>46.103299999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43.381</v>
+      </c>
+      <c r="E4" s="3">
+        <v>436.13799999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>20107.400000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>100.53700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>43560</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>48.719799999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>41.052</v>
+      </c>
+      <c r="E5" s="3">
+        <v>477.19</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>23248.32</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>105.67418181818182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>43591</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>48.301900000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41.405999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>518.596</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25049.17</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>104.37154166666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>43622</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50.1464</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D13" si="2">B7/C7</f>
+        <v>39.883221926200086</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E13" si="3">E6+D7</f>
+        <v>558.47922192620013</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>26000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>28005.71</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>107.71426923076923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>43656</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>49.931699999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="2"/>
+        <v>40.054714740335299</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="3"/>
+        <v>598.5339366665354</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>28000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>29885.82</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>106.73507142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>43682</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46.495100000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="2"/>
+        <v>43.015285481695919</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="3"/>
+        <v>641.54922214823137</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>29828.880000000001</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>99.429599999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>43713</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46.881599999999999</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>42.660660045732229</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="3"/>
+        <v>684.20988219396361</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>32076.86</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>100.2401875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>43745</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>48.360399999999998</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="2"/>
+        <v>41.356150900323406</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="3"/>
+        <v>725.56603309428704</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>34000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>35088.660000000003</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>103.2019411764706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>50.574199999999998</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="2"/>
+        <v>39.545855396625157</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="3"/>
+        <v>765.11188849091218</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>38694.93</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>107.48591666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="9">
+        <v>43804</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="10">
+        <v>50.466200000000001</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="2"/>
+        <v>39.630485354554139</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="3"/>
+        <v>804.74237384546632</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>38000</v>
+      </c>
+      <c r="G13" s="10">
+        <v>40612.269999999997</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>106.87439473684209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50.544600000000003</v>
+      </c>
+      <c r="D2" s="14">
+        <f t="shared" ref="D2:D13" si="0">B2/C2</f>
+        <v>39.569014296284863</v>
+      </c>
+      <c r="E2" s="14">
+        <f>stats!$E$21+D2</f>
+        <v>844.31138814175119</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2+stats!$F$21</f>
+        <v>40000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>42675.360000000001</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H13" si="1">(G2*100)/F2</f>
+        <v>106.6884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>52.175699999999999</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" si="0"/>
+        <v>38.332020461632524</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E2:E13" si="2">E2+D3</f>
+        <v>882.6434086033837</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F13" si="3">F2+B3</f>
+        <v>42000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>46052.52</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="1"/>
+        <v>109.64885714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>49.3596</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="0"/>
+        <v>40.518966928419189</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="2"/>
+        <v>923.16237553180292</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="3"/>
+        <v>44000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45566.91</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>103.56115909090909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>37.700699999999998</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>53.049412875623005</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="2"/>
+        <v>976.21178840742596</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="3"/>
+        <v>46000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>36803.839999999997</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>80.008347826086947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>39.318800000000003</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>50.866252276264788</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>1027.0780406836907</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="3"/>
+        <v>48000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>40383.440000000002</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>84.132166666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42.606999999999999</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>46.940643556223158</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>1074.0186842399139</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45760.68</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>91.521360000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44.737000000000002</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>44.703489281802533</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="2"/>
+        <v>1118.7221735217165</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="3"/>
+        <v>51999.9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50048.22</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>96.246762013003874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45.633099999999999</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>43.825644104827418</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="2"/>
+        <v>1162.547817626544</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="3"/>
+        <v>53999.8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>53050.62</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>98.242252749084244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>47.117800000000003</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>42.444681203281988</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="2"/>
+        <v>1204.992498829826</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="3"/>
+        <v>55999.700000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>56776.57</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>101.38727528897475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47.461100000000002</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>42.137666425767627</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="2"/>
+        <v>1247.1301652555935</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
+        <v>57999.600000000006</v>
+      </c>
+      <c r="G11" s="3">
+        <v>59190.6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>102.05346243767197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>50.252000000000002</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>39.79742099816923</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="2"/>
+        <v>1286.9275862537627</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
+        <v>59999.500000000007</v>
+      </c>
+      <c r="G12" s="3">
+        <v>64670.66</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>107.78533154442952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="9">
+        <v>44172</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1999.9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>56.462200000000003</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>35.420157202517792</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
+        <v>1322.3477434562806</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="3"/>
+        <v>61999.400000000009</v>
+      </c>
+      <c r="G13" s="10">
+        <v>74662.62</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="1"/>
+        <v>120.42474604592945</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>59.333399999999997</v>
+      </c>
+      <c r="D2" s="14">
+        <f t="shared" ref="D2:D3" si="0">B2/C2</f>
+        <v>33.706141903211346</v>
+      </c>
+      <c r="E2" s="14">
+        <f>stats!$E$33+D2</f>
+        <v>1356.0538853594919</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2+'2020_Market'!$F$13</f>
+        <v>63999.30000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <v>80459.240000000005</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H3" si="1">(G2*100)/F2</f>
+        <v>125.71893755087946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>63.859299999999998</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" si="0"/>
+        <v>31.317286597253652</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E2:E3" si="2">E2+D3</f>
+        <v>1387.3711719567455</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3" si="3">F2+B3</f>
+        <v>65999.200000000012</v>
+      </c>
+      <c r="G3" s="3">
+        <v>88596.479999999996</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="1"/>
+        <v>134.2387180450672</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Market.xlsx
+++ b/Market.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
   <si>
     <t>Amt</t>
   </si>
@@ -44,15 +44,25 @@
     <t>NAVperUnit</t>
   </si>
   <si>
-    <t>No_of_Unitsfor2000</t>
+    <t>UnitsPurchased</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>L099G SBI Magnum Muilticap Fund-Reg Gr</t>
+  </si>
+  <si>
+    <t>L099G SBI Flexicap Fund-Reg Gr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -114,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +166,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,7 +488,8 @@
     <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="9" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -497,6 +517,9 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4">
@@ -520,7 +543,9 @@
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
@@ -548,7 +573,9 @@
         <f t="shared" ref="H3:H4" si="0">(G3*100)/F3</f>
         <v>97.930499999999995</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
@@ -576,7 +603,9 @@
         <f t="shared" si="0"/>
         <v>98.719250000000002</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
@@ -604,7 +633,9 @@
         <f>(G5*100)/F5</f>
         <v>102.85516666666666</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
@@ -629,10 +660,12 @@
         <v>8155.68</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H35" si="1">(G6*100)/F6</f>
+        <f t="shared" ref="H6:H38" si="1">(G6*100)/F6</f>
         <v>101.946</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
@@ -660,7 +693,9 @@
         <f t="shared" si="1"/>
         <v>92.366399999999999</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
@@ -689,7 +724,9 @@
         <f t="shared" si="1"/>
         <v>95.686666666666667</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="9">
@@ -718,7 +755,9 @@
         <f t="shared" si="1"/>
         <v>98.016857142857148</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
@@ -747,6 +786,9 @@
         <f t="shared" si="1"/>
         <v>99.396562500000002</v>
       </c>
+      <c r="I10" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
@@ -775,6 +817,9 @@
         <f t="shared" si="1"/>
         <v>98.489944444444433</v>
       </c>
+      <c r="I11" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
@@ -803,6 +848,9 @@
         <f t="shared" si="1"/>
         <v>100.53700000000001</v>
       </c>
+      <c r="I12" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
@@ -831,6 +879,9 @@
         <f t="shared" si="1"/>
         <v>105.67418181818182</v>
       </c>
+      <c r="I13" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
@@ -859,6 +910,9 @@
         <f t="shared" si="1"/>
         <v>104.37154166666667</v>
       </c>
+      <c r="I14" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
@@ -875,7 +929,7 @@
         <v>39.883221926200086</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E35" si="4">E14+D15</f>
+        <f t="shared" ref="E15:E36" si="4">E14+D15</f>
         <v>558.47922192620013</v>
       </c>
       <c r="F15" s="3">
@@ -888,6 +942,9 @@
       <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>107.71426923076923</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -919,6 +976,9 @@
         <f t="shared" si="1"/>
         <v>106.73507142857143</v>
       </c>
+      <c r="I16" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
@@ -949,6 +1009,9 @@
         <f t="shared" si="1"/>
         <v>99.429599999999994</v>
       </c>
+      <c r="I17" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
@@ -979,6 +1042,9 @@
         <f t="shared" si="1"/>
         <v>100.2401875</v>
       </c>
+      <c r="I18" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
@@ -1009,6 +1075,9 @@
         <f t="shared" si="1"/>
         <v>103.2019411764706</v>
       </c>
+      <c r="I19" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
@@ -1039,6 +1108,9 @@
         <f t="shared" si="1"/>
         <v>107.48591666666667</v>
       </c>
+      <c r="I20" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="9">
@@ -1069,7 +1141,9 @@
         <f t="shared" si="1"/>
         <v>106.87439473684209</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
@@ -1100,6 +1174,9 @@
         <f t="shared" si="1"/>
         <v>106.6884</v>
       </c>
+      <c r="I22" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
@@ -1130,6 +1207,9 @@
         <f t="shared" si="1"/>
         <v>109.64885714285714</v>
       </c>
+      <c r="I23" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
@@ -1160,6 +1240,9 @@
         <f t="shared" si="1"/>
         <v>103.56115909090909</v>
       </c>
+      <c r="I24" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
@@ -1190,6 +1273,9 @@
         <f t="shared" si="1"/>
         <v>80.008347826086947</v>
       </c>
+      <c r="I25" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
@@ -1220,6 +1306,9 @@
         <f t="shared" si="1"/>
         <v>84.132166666666663</v>
       </c>
+      <c r="I26" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
@@ -1250,6 +1339,9 @@
         <f t="shared" si="1"/>
         <v>91.521360000000001</v>
       </c>
+      <c r="I27" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
@@ -1280,6 +1372,9 @@
         <f t="shared" si="1"/>
         <v>96.246762013003874</v>
       </c>
+      <c r="I28" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
@@ -1310,6 +1405,9 @@
         <f t="shared" si="1"/>
         <v>98.242252749084244</v>
       </c>
+      <c r="I29" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
@@ -1340,6 +1438,9 @@
         <f t="shared" si="1"/>
         <v>101.38727528897475</v>
       </c>
+      <c r="I30" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
@@ -1370,6 +1471,9 @@
         <f t="shared" si="1"/>
         <v>102.05346243767197</v>
       </c>
+      <c r="I31" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
@@ -1400,6 +1504,9 @@
         <f t="shared" si="1"/>
         <v>107.78533154442952</v>
       </c>
+      <c r="I32" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="9">
@@ -1430,7 +1537,9 @@
         <f t="shared" si="1"/>
         <v>120.42474604592945</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
@@ -1461,6 +1570,9 @@
         <f t="shared" si="1"/>
         <v>125.71893755087946</v>
       </c>
+      <c r="I34" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
@@ -1490,6 +1602,106 @@
       <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>134.2387180450672</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C36" s="3">
+        <v>64.343599999999995</v>
+      </c>
+      <c r="D36" s="16">
+        <f>B36/C36</f>
+        <v>31.081568330028166</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="4"/>
+        <v>1418.4527402867736</v>
+      </c>
+      <c r="F36" s="3">
+        <f>F35+B36</f>
+        <v>67999.100000000006</v>
+      </c>
+      <c r="G36" s="3">
+        <v>91268.31</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>134.21987938075651</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C37" s="3">
+        <v>62.579700000000003</v>
+      </c>
+      <c r="D37" s="16">
+        <f>B37/C37</f>
+        <v>31.957647607770571</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1450.41</v>
+      </c>
+      <c r="F37" s="3">
+        <f>F36+B37</f>
+        <v>69999</v>
+      </c>
+      <c r="G37" s="3">
+        <v>90766.22</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>129.66788096972815</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C38" s="3">
+        <v>63.301499999999997</v>
+      </c>
+      <c r="D38" s="16">
+        <f>B38/C38</f>
+        <v>31.593248185272074</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1482.0029999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <f>F37+B38</f>
+        <v>71998.899999999994</v>
+      </c>
+      <c r="G38" s="3">
+        <v>93813.01</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>130.29783788363434</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1715,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1768,7 +1980,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2168,7 +2380,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2253,7 +2465,7 @@
         <v>38.332020461632524</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" ref="E2:E13" si="2">E2+D3</f>
+        <f t="shared" ref="E3:E13" si="2">E2+D3</f>
         <v>882.6434086033837</v>
       </c>
       <c r="F3" s="3">
@@ -2575,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2645,7 +2857,7 @@
         <v>80459.240000000005</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H3" si="1">(G2*100)/F2</f>
+        <f t="shared" ref="H2:H6" si="1">(G2*100)/F2</f>
         <v>125.71893755087946</v>
       </c>
     </row>
@@ -2664,7 +2876,7 @@
         <v>31.317286597253652</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" ref="E2:E3" si="2">E2+D3</f>
+        <f t="shared" ref="E3:E4" si="2">E2+D3</f>
         <v>1387.3711719567455</v>
       </c>
       <c r="F3" s="3">
@@ -2677,6 +2889,94 @@
       <c r="H3" s="7">
         <f t="shared" si="1"/>
         <v>134.2387180450672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>64.343599999999995</v>
+      </c>
+      <c r="D4" s="16">
+        <f>B4/C4</f>
+        <v>31.081568330028166</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="2"/>
+        <v>1418.4527402867736</v>
+      </c>
+      <c r="F4" s="3">
+        <f>F3+B4</f>
+        <v>67999.100000000006</v>
+      </c>
+      <c r="G4" s="3">
+        <v>91268.31</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>134.21987938075651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>62.579700000000003</v>
+      </c>
+      <c r="D5" s="16">
+        <f>B5/C5</f>
+        <v>31.957647607770571</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1450.41</v>
+      </c>
+      <c r="F5" s="3">
+        <f>F4+B5</f>
+        <v>69999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>90766.22</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>129.66788096972815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>63.301499999999997</v>
+      </c>
+      <c r="D6" s="16">
+        <f>B6/C6</f>
+        <v>31.593248185272074</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1482.0029999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <f>F5+B6</f>
+        <v>71998.899999999994</v>
+      </c>
+      <c r="G6" s="3">
+        <v>93813.01</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>130.29783788363434</v>
       </c>
     </row>
   </sheetData>

--- a/Market.xlsx
+++ b/Market.xlsx
@@ -474,8 +474,8 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1715,7 +1715,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2790,7 +2790,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Market.xlsx
+++ b/Market.xlsx
@@ -50,10 +50,10 @@
     <t>Scheme</t>
   </si>
   <si>
-    <t>L099G SBI Magnum Muilticap Fund-Reg Gr</t>
+    <t>Scheme1</t>
   </si>
   <si>
-    <t>L099G SBI Flexicap Fund-Reg Gr</t>
+    <t>Scheme2</t>
   </si>
 </sst>
 </file>
@@ -473,9 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Market.xlsx
+++ b/Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
   <si>
     <t>Amt</t>
   </si>
@@ -50,10 +50,10 @@
     <t>Scheme</t>
   </si>
   <si>
-    <t>Scheme1</t>
+    <t>L099G SBI Magnum Muilticap Fund-Reg Gr</t>
   </si>
   <si>
-    <t>Scheme2</t>
+    <t>L099G SBI Flexicap Fund-Reg Gr</t>
   </si>
 </sst>
 </file>
@@ -471,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36:I38"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,7 +660,7 @@
         <v>8155.68</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H38" si="1">(G6*100)/F6</f>
+        <f t="shared" ref="H6:H41" si="1">(G6*100)/F6</f>
         <v>101.946</v>
       </c>
       <c r="I6" s="15" t="s">
@@ -1701,6 +1701,105 @@
         <v>130.29783788363434</v>
       </c>
       <c r="I38" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>68.518500000000003</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" ref="D39:D41" si="5">B39/C39</f>
+        <v>29.187737618307466</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" ref="E39:E41" si="6">E38+D39</f>
+        <v>1511.1907376183074</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" ref="F39:F41" si="7">F38+B39</f>
+        <v>73998.799999999988</v>
+      </c>
+      <c r="G39" s="3">
+        <v>103544.54</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>139.92732314578078</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C40" s="3">
+        <v>69.676199999999994</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="5"/>
+        <v>28.702770817007821</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="6"/>
+        <v>1539.8935084353152</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="7"/>
+        <v>75998.699999999983</v>
+      </c>
+      <c r="G40" s="3">
+        <v>107293.96</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>141.1786780563352</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>71.845500000000001</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="5"/>
+        <v>27.836120564266377</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="6"/>
+        <v>1567.7296289995816</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="7"/>
+        <v>77998.599999999977</v>
+      </c>
+      <c r="G41" s="3">
+        <v>112634.35</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>144.40560471598212</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2787,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2805,7 +2904,7 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2831,7 +2930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>44201</v>
       </c>
@@ -2857,11 +2956,11 @@
         <v>80459.240000000005</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H6" si="1">(G2*100)/F2</f>
+        <f t="shared" ref="H2:H9" si="1">(G2*100)/F2</f>
         <v>125.71893755087946</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>44235</v>
       </c>
@@ -2891,7 +2990,7 @@
         <v>134.2387180450672</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -2921,7 +3020,7 @@
         <v>134.21987938075651</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>44292</v>
       </c>
@@ -2950,7 +3049,7 @@
         <v>129.66788096972815</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>44321</v>
       </c>
@@ -2978,6 +3077,99 @@
         <f t="shared" si="1"/>
         <v>130.29783788363434</v>
       </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>68.518500000000003</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:D9" si="4">B7/C7</f>
+        <v>29.187737618307466</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" ref="E7:E9" si="5">E6+D7</f>
+        <v>1511.1907376183074</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F9" si="6">F6+B7</f>
+        <v>73998.799999999988</v>
+      </c>
+      <c r="G7" s="3">
+        <v>103544.54</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>139.92732314578078</v>
+      </c>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>69.676199999999994</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="4"/>
+        <v>28.702770817007821</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="5"/>
+        <v>1539.8935084353152</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="6"/>
+        <v>75998.699999999983</v>
+      </c>
+      <c r="G8" s="3">
+        <v>107293.96</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>141.1786780563352</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>71.845500000000001</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="4"/>
+        <v>27.836120564266377</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="5"/>
+        <v>1567.7296289995816</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="6"/>
+        <v>77998.599999999977</v>
+      </c>
+      <c r="G9" s="3">
+        <v>112634.35</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>144.40560471598212</v>
+      </c>
+      <c r="I9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Market.xlsx
+++ b/Market.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0225A889-B3E1-45E3-95E6-58EA78F3E9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,21 @@
     <sheet name="2020_Market" sheetId="5" r:id="rId4"/>
     <sheet name="2021_Market" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
   <si>
     <t>Amt</t>
   </si>
@@ -59,12 +69,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,12 +187,23 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -229,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +282,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +334,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,29 +527,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:I41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
+    <col min="3" max="3" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,7 +578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43250</v>
       </c>
@@ -547,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43256</v>
       </c>
@@ -577,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43286</v>
       </c>
@@ -607,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43318</v>
       </c>
@@ -637,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43348</v>
       </c>
@@ -667,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43378</v>
       </c>
@@ -697,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43409</v>
       </c>
@@ -728,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>43439</v>
       </c>
@@ -759,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43472</v>
       </c>
@@ -790,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43501</v>
       </c>
@@ -821,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43529</v>
       </c>
@@ -852,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43560</v>
       </c>
@@ -883,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43591</v>
       </c>
@@ -914,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43622</v>
       </c>
@@ -947,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43656</v>
       </c>
@@ -980,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43682</v>
       </c>
@@ -1013,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43713</v>
       </c>
@@ -1046,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43745</v>
       </c>
@@ -1079,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43774</v>
       </c>
@@ -1112,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>43804</v>
       </c>
@@ -1145,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43836</v>
       </c>
@@ -1178,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43866</v>
       </c>
@@ -1211,7 +1268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43895</v>
       </c>
@@ -1244,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43928</v>
       </c>
@@ -1277,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43956</v>
       </c>
@@ -1310,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43987</v>
       </c>
@@ -1343,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44018</v>
       </c>
@@ -1376,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44048</v>
       </c>
@@ -1409,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44081</v>
       </c>
@@ -1442,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44109</v>
       </c>
@@ -1475,7 +1532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44140</v>
       </c>
@@ -1508,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>44172</v>
       </c>
@@ -1541,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44201</v>
       </c>
@@ -1574,7 +1631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44235</v>
       </c>
@@ -1607,7 +1664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44263</v>
       </c>
@@ -1640,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44292</v>
       </c>
@@ -1672,7 +1729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44321</v>
       </c>
@@ -1704,7 +1761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44356</v>
       </c>
@@ -1715,7 +1772,7 @@
         <v>68.518500000000003</v>
       </c>
       <c r="D39" s="16">
-        <f t="shared" ref="D39:D41" si="5">B39/C39</f>
+        <f t="shared" ref="D39:D43" si="5">B39/C39</f>
         <v>29.187737618307466</v>
       </c>
       <c r="E39" s="17">
@@ -1723,7 +1780,7 @@
         <v>1511.1907376183074</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" ref="F39:F41" si="7">F38+B39</f>
+        <f t="shared" ref="F39:F45" si="7">F38+B39</f>
         <v>73998.799999999988</v>
       </c>
       <c r="G39" s="3">
@@ -1737,7 +1794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44384</v>
       </c>
@@ -1770,7 +1827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44413</v>
       </c>
@@ -1802,6 +1859,136 @@
       <c r="I41" s="15" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C42" s="3">
+        <v>75.080399999999997</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="5"/>
+        <v>26.636778706559902</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1594.367</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="7"/>
+        <v>79998.499999999971</v>
+      </c>
+      <c r="G42" s="3">
+        <v>119705.71</v>
+      </c>
+      <c r="H42" s="7">
+        <f>(G42*100)/F42</f>
+        <v>149.6349431551842</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44474</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C43" s="3">
+        <v>77.058300000000003</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="5"/>
+        <v>25.953077085790888</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" ref="E43:E45" si="8">E42+D43</f>
+        <v>1620.3200770857909</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="7"/>
+        <v>81998.399999999965</v>
+      </c>
+      <c r="G43" s="3">
+        <v>124859.1</v>
+      </c>
+      <c r="H43" s="7">
+        <f>(G43*100)/F43</f>
+        <v>152.27016624714636</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C44" s="3">
+        <v>78.8887</v>
+      </c>
+      <c r="D44" s="3">
+        <v>25.350999999999999</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="8"/>
+        <v>1645.6710770857908</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="7"/>
+        <v>83998.299999999959</v>
+      </c>
+      <c r="G44" s="3">
+        <v>129824.85</v>
+      </c>
+      <c r="H44" s="7">
+        <f>(G44*100)/F44</f>
+        <v>154.55652078673029</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>44536</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1999.9</v>
+      </c>
+      <c r="C45" s="10">
+        <v>73.883899999999997</v>
+      </c>
+      <c r="D45" s="10">
+        <v>27.068000000000001</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="8"/>
+        <v>1672.7390770857908</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="7"/>
+        <v>85998.199999999953</v>
+      </c>
+      <c r="G45" s="10">
+        <v>123588.48</v>
+      </c>
+      <c r="H45" s="13">
+        <f>(G45*100)/F45</f>
+        <v>143.71054277880242</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,25 +1997,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1854,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43250</v>
       </c>
@@ -1878,7 +2065,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43256</v>
       </c>
@@ -1905,7 +2092,7 @@
         <v>97.930499999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43286</v>
       </c>
@@ -1932,7 +2119,7 @@
         <v>98.719250000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43318</v>
       </c>
@@ -1959,7 +2146,7 @@
         <v>102.85516666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43348</v>
       </c>
@@ -1986,7 +2173,7 @@
         <v>101.946</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43378</v>
       </c>
@@ -2013,7 +2200,7 @@
         <v>92.366399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43409</v>
       </c>
@@ -2041,7 +2228,7 @@
         <v>95.686666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>43439</v>
       </c>
@@ -2075,25 +2262,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43472</v>
       </c>
@@ -2147,7 +2334,7 @@
         <v>99.396562500000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43501</v>
       </c>
@@ -2175,7 +2362,7 @@
         <v>98.489944444444433</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43529</v>
       </c>
@@ -2203,7 +2390,7 @@
         <v>100.53700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43560</v>
       </c>
@@ -2231,7 +2418,7 @@
         <v>105.67418181818182</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43591</v>
       </c>
@@ -2259,7 +2446,7 @@
         <v>104.37154166666667</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43622</v>
       </c>
@@ -2289,7 +2476,7 @@
         <v>107.71426923076923</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43656</v>
       </c>
@@ -2319,7 +2506,7 @@
         <v>106.73507142857143</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43682</v>
       </c>
@@ -2349,7 +2536,7 @@
         <v>99.429599999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43713</v>
       </c>
@@ -2379,7 +2566,7 @@
         <v>100.2401875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43745</v>
       </c>
@@ -2409,7 +2596,7 @@
         <v>103.2019411764706</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43774</v>
       </c>
@@ -2439,7 +2626,7 @@
         <v>107.48591666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>43804</v>
       </c>
@@ -2475,25 +2662,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2519,7 +2706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43836</v>
       </c>
@@ -2549,7 +2736,7 @@
         <v>106.6884</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43866</v>
       </c>
@@ -2579,7 +2766,7 @@
         <v>109.64885714285714</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43895</v>
       </c>
@@ -2609,7 +2796,7 @@
         <v>103.56115909090909</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43928</v>
       </c>
@@ -2639,7 +2826,7 @@
         <v>80.008347826086947</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43956</v>
       </c>
@@ -2669,7 +2856,7 @@
         <v>84.132166666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43987</v>
       </c>
@@ -2699,7 +2886,7 @@
         <v>91.521360000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44018</v>
       </c>
@@ -2729,7 +2916,7 @@
         <v>96.246762013003874</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44048</v>
       </c>
@@ -2759,7 +2946,7 @@
         <v>98.242252749084244</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44081</v>
       </c>
@@ -2789,7 +2976,7 @@
         <v>101.38727528897475</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44109</v>
       </c>
@@ -2819,7 +3006,7 @@
         <v>102.05346243767197</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44140</v>
       </c>
@@ -2849,7 +3036,7 @@
         <v>107.78533154442952</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>44172</v>
       </c>
@@ -2885,26 +3072,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2930,7 +3117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44201</v>
       </c>
@@ -2960,7 +3147,7 @@
         <v>125.71893755087946</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44235</v>
       </c>
@@ -2990,7 +3177,7 @@
         <v>134.2387180450672</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -3020,7 +3207,7 @@
         <v>134.21987938075651</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44292</v>
       </c>
@@ -3049,7 +3236,7 @@
         <v>129.66788096972815</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44321</v>
       </c>
@@ -3078,7 +3265,7 @@
         <v>130.29783788363434</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44356</v>
       </c>
@@ -3089,7 +3276,7 @@
         <v>68.518500000000003</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" ref="D7:D9" si="4">B7/C7</f>
+        <f t="shared" ref="D7:D11" si="4">B7/C7</f>
         <v>29.187737618307466</v>
       </c>
       <c r="E7" s="17">
@@ -3097,7 +3284,7 @@
         <v>1511.1907376183074</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F9" si="6">F6+B7</f>
+        <f t="shared" ref="F7:F13" si="6">F6+B7</f>
         <v>73998.799999999988</v>
       </c>
       <c r="G7" s="3">
@@ -3109,7 +3296,7 @@
       </c>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44384</v>
       </c>
@@ -3140,7 +3327,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44413</v>
       </c>
@@ -3170,6 +3357,127 @@
         <v>144.40560471598212</v>
       </c>
       <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>75.080399999999997</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="4"/>
+        <v>26.636778706559902</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1594.367</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="6"/>
+        <v>79998.499999999971</v>
+      </c>
+      <c r="G10" s="3">
+        <v>119705.71</v>
+      </c>
+      <c r="H10" s="7">
+        <f>(G10*100)/F10</f>
+        <v>149.6349431551842</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44474</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>77.058300000000003</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="4"/>
+        <v>25.953077085790888</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ref="E11:E13" si="7">E10+D11</f>
+        <v>1620.3200770857909</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="6"/>
+        <v>81998.399999999965</v>
+      </c>
+      <c r="G11" s="3">
+        <v>124859.1</v>
+      </c>
+      <c r="H11" s="7">
+        <f>(G11*100)/F11</f>
+        <v>152.27016624714636</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1999.9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>78.8887</v>
+      </c>
+      <c r="D12" s="3">
+        <v>25.350999999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="7"/>
+        <v>1645.6710770857908</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="6"/>
+        <v>83998.299999999959</v>
+      </c>
+      <c r="G12" s="3">
+        <v>129824.85</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(G12*100)/F12</f>
+        <v>154.55652078673029</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>44536</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1999.9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>73.883899999999997</v>
+      </c>
+      <c r="D13" s="10">
+        <v>27.068000000000001</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="7"/>
+        <v>1672.7390770857908</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="6"/>
+        <v>85998.199999999953</v>
+      </c>
+      <c r="G13" s="10">
+        <v>123588.48</v>
+      </c>
+      <c r="H13" s="13">
+        <f>(G13*100)/F13</f>
+        <v>143.71054277880242</v>
+      </c>
+      <c r="I13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
